--- a/src/schedule/data/Egy jó órarend.xlsx
+++ b/src/schedule/data/Egy jó órarend.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felhasznalo\Desktop\képzés\Java képzés\ak_iterator\_000000 Projekt\SchoolSchedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felhasznalo\Desktop\képzés\Java képzés\ak_iterator\_000000 Projekt\SchoolSchedule\src\schedule\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234F52AC-0070-41B3-8F9F-813DAAA53FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FA3503-D4FA-46D1-A563-0BF41815A752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -703,14 +703,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -756,37 +783,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1067,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:J56"/>
+  <dimension ref="B3:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1088,1313 +1084,1310 @@
   <sheetData>
     <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="28" t="s">
+      <c r="C5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="29" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="15" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="29" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="29" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="15" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="29" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="29" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="29" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="30" t="s">
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="G13" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="28" t="s">
+      <c r="G13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="36"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="28" t="s">
+      <c r="C15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="37" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="J16" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="37" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="37" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="39" t="s">
+      <c r="J18" s="20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="37" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="39" t="s">
+      <c r="J19" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="37" t="s">
+      <c r="B20" s="36"/>
+      <c r="C20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="39" t="s">
+      <c r="J20" s="20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="37" t="s">
+      <c r="B21" s="36"/>
+      <c r="C21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="38" t="s">
+      <c r="H21" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J21" s="39" t="s">
+      <c r="J21" s="20" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="37" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="H22" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="37" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="28" t="s">
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="36"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="28" t="s">
+      <c r="C25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="40" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="J26" s="42" t="s">
+      <c r="J26" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="12"/>
-      <c r="C27" s="40" t="s">
+      <c r="B27" s="39"/>
+      <c r="C27" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I27" s="41" t="s">
+      <c r="I27" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="42" t="s">
+      <c r="J27" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="40" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="41" t="s">
+      <c r="F28" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="I28" s="41" t="s">
+      <c r="I28" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="J28" s="42" t="s">
+      <c r="J28" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
-      <c r="C29" s="40" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="41" t="s">
+      <c r="F29" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="41" t="s">
+      <c r="G29" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="41" t="s">
+      <c r="H29" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="41" t="s">
+      <c r="I29" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="J29" s="42" t="s">
+      <c r="J29" s="23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="C30" s="40" t="s">
+      <c r="B30" s="39"/>
+      <c r="C30" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G30" s="41" t="s">
+      <c r="G30" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="41" t="s">
+      <c r="H30" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="41" t="s">
+      <c r="I30" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="J30" s="42" t="s">
+      <c r="J30" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
-      <c r="C31" s="40" t="s">
+      <c r="B31" s="39"/>
+      <c r="C31" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="E31" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G31" s="41" t="s">
+      <c r="G31" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="H31" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I31" s="27" t="s">
+      <c r="I31" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J31" s="28" t="s">
+      <c r="J31" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
-      <c r="C32" s="40" t="s">
+      <c r="B32" s="39"/>
+      <c r="C32" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="41" t="s">
+      <c r="F32" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="I32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J32" s="28" t="s">
+      <c r="J32" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-      <c r="C33" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="41" t="s">
+      <c r="B33" s="40"/>
+      <c r="C33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="28" t="s">
+      <c r="E33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="36"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I35" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J35" s="28" t="s">
+      <c r="C35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="15"/>
-      <c r="C36" s="43" t="s">
+      <c r="B36" s="42"/>
+      <c r="C36" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="H36" s="44" t="s">
+      <c r="H36" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="I36" s="44" t="s">
+      <c r="I36" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="J36" s="45" t="s">
+      <c r="J36" s="26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="15"/>
-      <c r="C37" s="43" t="s">
+      <c r="B37" s="42"/>
+      <c r="C37" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="44" t="s">
+      <c r="E37" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="44" t="s">
+      <c r="F37" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="G37" s="44" t="s">
+      <c r="G37" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="44" t="s">
+      <c r="H37" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I37" s="44" t="s">
+      <c r="I37" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="J37" s="45" t="s">
+      <c r="J37" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="15"/>
-      <c r="C38" s="43" t="s">
+      <c r="B38" s="42"/>
+      <c r="C38" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="44" t="s">
+      <c r="D38" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="44" t="s">
+      <c r="E38" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="44" t="s">
+      <c r="F38" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="44" t="s">
+      <c r="G38" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="44" t="s">
+      <c r="H38" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="I38" s="44" t="s">
+      <c r="I38" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="45" t="s">
+      <c r="J38" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="15"/>
-      <c r="C39" s="43" t="s">
+      <c r="B39" s="42"/>
+      <c r="C39" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="F39" s="44" t="s">
+      <c r="F39" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="44" t="s">
+      <c r="G39" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="44" t="s">
+      <c r="H39" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="I39" s="44" t="s">
+      <c r="I39" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="J39" s="45" t="s">
+      <c r="J39" s="26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="15"/>
-      <c r="C40" s="43" t="s">
+      <c r="B40" s="42"/>
+      <c r="C40" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="44" t="s">
+      <c r="E40" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="F40" s="44" t="s">
+      <c r="F40" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="44" t="s">
+      <c r="G40" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="H40" s="44" t="s">
+      <c r="H40" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I40" s="44" t="s">
+      <c r="I40" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="J40" s="45" t="s">
+      <c r="J40" s="26" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="15"/>
-      <c r="C41" s="43" t="s">
+      <c r="B41" s="42"/>
+      <c r="C41" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="44" t="s">
+      <c r="D41" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="44" t="s">
+      <c r="E41" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="44" t="s">
+      <c r="F41" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G41" s="27" t="s">
+      <c r="G41" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H41" s="44" t="s">
+      <c r="H41" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I41" s="44" t="s">
+      <c r="I41" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="J41" s="45" t="s">
+      <c r="J41" s="26" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="15"/>
-      <c r="C42" s="26" t="s">
+      <c r="B42" s="42"/>
+      <c r="C42" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="27" t="s">
+      <c r="F42" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G42" s="27" t="s">
+      <c r="G42" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="44" t="s">
+      <c r="H42" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="I42" s="27" t="s">
+      <c r="I42" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J42" s="45" t="s">
+      <c r="J42" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
-      <c r="C43" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J43" s="28" t="s">
+      <c r="B43" s="43"/>
+      <c r="C43" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="36"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G45" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I45" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J45" s="28" t="s">
+      <c r="C45" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="18"/>
-      <c r="C46" s="46" t="s">
+      <c r="B46" s="45"/>
+      <c r="C46" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="47" t="s">
+      <c r="E46" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="F46" s="47" t="s">
+      <c r="F46" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G46" s="47" t="s">
+      <c r="G46" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="H46" s="47" t="s">
+      <c r="H46" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="I46" s="47" t="s">
+      <c r="I46" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="J46" s="48" t="s">
+      <c r="J46" s="29" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="18"/>
-      <c r="C47" s="46" t="s">
+      <c r="B47" s="45"/>
+      <c r="C47" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="47" t="s">
+      <c r="D47" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="47" t="s">
+      <c r="E47" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="47" t="s">
+      <c r="F47" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G47" s="47" t="s">
+      <c r="G47" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H47" s="47" t="s">
+      <c r="H47" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I47" s="47" t="s">
+      <c r="I47" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="48" t="s">
+      <c r="J47" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="18"/>
-      <c r="C48" s="46" t="s">
+      <c r="B48" s="45"/>
+      <c r="C48" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="47" t="s">
+      <c r="E48" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F48" s="47" t="s">
+      <c r="F48" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G48" s="47" t="s">
+      <c r="G48" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H48" s="47" t="s">
+      <c r="H48" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I48" s="47" t="s">
+      <c r="I48" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="J48" s="48" t="s">
+      <c r="J48" s="29" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="18"/>
-      <c r="C49" s="46" t="s">
+      <c r="B49" s="45"/>
+      <c r="C49" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="47" t="s">
+      <c r="D49" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="47" t="s">
+      <c r="E49" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="F49" s="47" t="s">
+      <c r="F49" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="G49" s="47" t="s">
+      <c r="G49" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="47" t="s">
+      <c r="H49" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I49" s="47" t="s">
+      <c r="I49" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="J49" s="48" t="s">
+      <c r="J49" s="29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="18"/>
-      <c r="C50" s="46" t="s">
+      <c r="B50" s="45"/>
+      <c r="C50" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D50" s="47" t="s">
+      <c r="D50" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="47" t="s">
+      <c r="E50" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F50" s="49" t="s">
+      <c r="F50" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="G50" s="47" t="s">
+      <c r="G50" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H50" s="47" t="s">
+      <c r="H50" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="I50" s="47" t="s">
+      <c r="I50" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="J50" s="50" t="s">
+      <c r="J50" s="31" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="18"/>
-      <c r="C51" s="46" t="s">
+      <c r="B51" s="45"/>
+      <c r="C51" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="47" t="s">
+      <c r="E51" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F51" s="47" t="s">
+      <c r="F51" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="G51" s="47" t="s">
+      <c r="G51" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="H51" s="47" t="s">
+      <c r="H51" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I51" s="47" t="s">
+      <c r="I51" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="J51" s="28" t="s">
+      <c r="J51" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="18"/>
-      <c r="C52" s="26" t="s">
+      <c r="B52" s="45"/>
+      <c r="C52" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="47" t="s">
+      <c r="D52" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F52" s="27" t="s">
+      <c r="F52" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="47" t="s">
+      <c r="G52" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="H52" s="27" t="s">
+      <c r="H52" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I52" s="47" t="s">
+      <c r="I52" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="J52" s="28" t="s">
+      <c r="J52" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="19"/>
-      <c r="C53" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="27" t="s">
+      <c r="B53" s="46"/>
+      <c r="C53" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H53" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J53" s="28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J56" s="4"/>
+      <c r="E53" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/src/schedule/data/Egy jó órarend.xlsx
+++ b/src/schedule/data/Egy jó órarend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felhasznalo\Desktop\képzés\Java képzés\ak_iterator\_000000 Projekt\SchoolSchedule\src\schedule\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FA3503-D4FA-46D1-A563-0BF41815A752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1A41DB-AC21-490C-9D45-A049C5A9BA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1066,7 +1066,7 @@
   <dimension ref="B3:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
